--- a/exceldata.xlsx
+++ b/exceldata.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">secret_sauce</t>
   </si>
   <si>
-    <t xml:space="preserve">Sauce Labs Bike Light</t>
+    <t xml:space="preserve">Sauce Labs Backpack</t>
   </si>
 </sst>
 </file>
@@ -148,13 +148,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
